--- a/results/exec_time.xlsx
+++ b/results/exec_time.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\bryan\2021-2\CC5905\vdf\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E063B-2939-4A02-915E-2CD41B05003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8175A-33F2-4388-8340-E1D39DA17045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exec_time" sheetId="1" r:id="rId1"/>
     <sheet name="Prover" sheetId="2" r:id="rId2"/>
     <sheet name="Verifier" sheetId="4" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>T</t>
   </si>
@@ -55,6 +67,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>Google Colab</t>
   </si>
 </sst>
 </file>
@@ -737,6 +752,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -758,7 +774,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,6 +827,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3CE25C"/>
+      <color rgb="FFE758EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2115,39 +2136,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>exec_time!$C$13:$C$22</c:f>
+              <c:f>exec_time!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7727239400000501</c:v>
+                  <c:v>3.5305787709999001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4470576700000901</c:v>
+                  <c:v>7.1252511967999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0613441299998998</c:v>
+                  <c:v>10.571144561999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7036138700000203</c:v>
+                  <c:v>14.2961616859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4302605599998905</c:v>
+                  <c:v>17.552375852000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.848868619999999</c:v>
+                  <c:v>21.3128970349001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.560869719999999</c:v>
+                  <c:v>24.702878009399999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.328208149999901</c:v>
+                  <c:v>28.650824512300002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.03331006</c:v>
+                  <c:v>31.7959653011998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.7053254500001</c:v>
+                  <c:v>35.099000310900102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,6 +2949,1040 @@
               <a:rPr lang="es-CL" sz="1600">
                 <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:t>Prover</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Google Colab</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$D$23:$D$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.4553920498122843E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.224377048502504E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2780393705641788E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7962446309413151E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6665560175499632E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6120361399977733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.427252166426935E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.741673113703349E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4516052607634245E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1004811810869403E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$D$23:$D$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.4553920498122843E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.224377048502504E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2780393705641788E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7962446309413151E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6665560175499632E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6120361399977733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.427252166426935E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.741673113703349E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4516052607634245E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1004811810869403E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$C$23:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2990572763000694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5742367581000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8142978335999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0599956752000672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.304956301600001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.60534221879999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.686439360699982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.90176215959989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.11907072399995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.368528816999962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B55-429E-9963-5D8862922B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$H$23:$H$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.4228366504502852E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3104025012716751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2281538647563175E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2365361220791781E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1491068538612604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3765959179150236E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4300649303111484E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8171554641061535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2114044352146168E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.9151285486635358E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$H$23:$H$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.4228366504502852E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3104025012716751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2281538647563175E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2365361220791781E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1491068538612604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3765959179150236E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4300649303111484E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8171554641061535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2114044352146168E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.9151285486635358E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$G$23:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9460353626000555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8751830411000316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.72670298900006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.596536028699878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.481524161499827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.441937094600089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.067762447299931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.926185939099877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.777489398199819</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.61454681979999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B55-429E-9963-5D8862922B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$23:$L$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8285052479013828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5468202573529213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6310996791454112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3297054371290281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3881126396055207E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.583478860396721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.0504493634753331E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4185425039482125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1112923462382449E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.8134337258268677E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$23:$L$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8285052479013828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5468202573529213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6310996791454112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3297054371290281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3881126396055207E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.583478860396721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.0504493634753331E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4185425039482125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1112923462382449E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.8134337258268677E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$23:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.1670876352000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.321224735400159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.291910492799836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.364335130400043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.433901435399946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.575435640199835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.23688640470013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.258593999299912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.285204171100077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.286275021099726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B55-429E-9963-5D8862922B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Verifier</a:t>
             </a:r>
             <a:r>
@@ -3929,7 +4984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4638,6 +5693,2976 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3399-4F5C-A14A-290180304663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Verifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Google Colab</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$F$23:$F$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.1917449771424856E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4784954309949348E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3196545779864139E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.4191367327346961E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6508814083482097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0151957736447271E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0692674210760391E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.203139965030275E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.4765830962713845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.0817212028607496E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$F$23:$F$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.1917449771424856E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4784954309949348E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3196545779864139E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.4191367327346961E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6508814083482097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0151957736447271E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0692674210760391E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.203139965030275E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.4765830962713845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.0817212028607496E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$E$23:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4668883999747751E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3734152999841129E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2620280000155563E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2407467999964806E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6960470999911144E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5766582998803592E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.021765299989051E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3347495000034507E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.969280699993756E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4072543000311225E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D10-43BF-BCED-DD0FA49A5F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$J$23:$J$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.4780388221676753E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1021844509114316E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.1534563216046566E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6566073733397864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2274563050860584E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5784086276441147E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3105118387768575E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0123559173395649E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.5931666548219584E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2307354595721103E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$J$23:$J$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.4780388221676753E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1021844509114316E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.1534563216046566E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6566073733397864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2274563050860584E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5784086276441147E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3105118387768575E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0123559173395649E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.5931666548219584E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2307354595721103E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$I$23:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.119329800027112E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0091527999920746E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.665173499914084E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0079130400117705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6285706001726697E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1585880001075533E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2316855001190476E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.10405469999386E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2733863001303552E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1498916000091243E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D10-43BF-BCED-DD0FA49A5F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$N$23:$N$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6105107797329504E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8415433306623803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4776875772416248E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0168329502132866E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3021574150344339E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2385588873232935E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.5076278908332867E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0084800399252432E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.2069846436675367E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.108889803029511E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$N$23:$N$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6105107797329504E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8415433306623803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4776875772416248E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0168329502132866E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3021574150344339E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2385588873232935E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.5076278908332867E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0084800399252432E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.2069846436675367E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.108889803029511E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$M$23:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.207222840002937E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0008192499935804E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.105057040022072E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1032343699935099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2038569999913266E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0629547500229788E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0396161899916443E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1952447000203351E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2235564500224382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.071865350022559E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D10-43BF-BCED-DD0FA49A5F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Prover</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Comparison (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>λ = 1024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i3 4030U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$3:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.388420021375874</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.39513008831525598</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1561520801262799</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.220184874208739</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54078538832651801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.859410092454</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.68271195593295897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.159235070063562</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.86254511659107003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29108468258095899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$3:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.388420021375874</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.39513008831525598</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1561520801262799</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.220184874208739</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54078538832651801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.859410092454</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.68271195593295897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.159235070063562</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.86254511659107003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29108468258095899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.349120025099801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.959985794499701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.6982834143997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.266359815900202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.520453484700099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.4492093566002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.075299884199694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.992055188000194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.906057717600007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.75606209350001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A00-425A-972B-C136A0F91EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Colab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="3CE25C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$23:$L$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8285052479013828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5468202573529213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6310996791454112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3297054371290281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3881126396055207E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.583478860396721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.0504493634753331E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4185425039482125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1112923462382449E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.8134337258268677E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$23:$L$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8285052479013828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5468202573529213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6310996791454112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3297054371290281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3881126396055207E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.583478860396721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.0504493634753331E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4185425039482125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1112923462382449E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.8134337258268677E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="3CE25C"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$23:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.1670876352000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.321224735400159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.291910492799836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.364335130400043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.433901435399946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.575435640199835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.23688640470013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.258593999299912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.285204171100077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.286275021099726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5A00-425A-972B-C136A0F91EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i5 8300H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E758EE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$13:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6.6614799153970894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.66509865082993103</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70606044298456205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.83692400945801604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3622611022867801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6653446221413399</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.72493368499103905</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2816140294413398</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.89788937969286</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6868696528348199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$13:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6.6614799153970894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.66509865082993103</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70606044298456205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.83692400945801604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3622611022867801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6653446221413399</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.72493368499103905</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2816140294413398</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.89788937969286</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6868696528348199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E758EE"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$13:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0565349200001899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.787465639999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.240491409999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.259697090000099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.9296479600001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.8246406499998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.745484039999802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.599563570000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.7401710299999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.101134799999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A00-425A-972B-C136A0F91EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Verifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>λ = 1024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i3 4030U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$N$3:$N$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.5200804163379501E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0577295228227802E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.30941412174201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.06549806645418E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5336133044404499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.07549157266334E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.9578190862773297E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5836278242277299E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9020305116748299E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3638388017037504E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$N$3:$N$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.5200804163379501E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0577295228227802E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.30941412174201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.06549806645418E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5336133044404499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.07549157266334E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.9578190862773297E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5836278242277299E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9020305116748299E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3638388017037504E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.47899789001712E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9582098400132902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33377523001399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3073149599949801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53270573002373E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.48113973993531E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3704346100166701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.41965044995231E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3507612299690599E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3677810399713001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB9F-4960-B8B3-2753C645D535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Colab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="3CE25C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$N$23:$N$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6105107797329504E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8415433306623803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4776875772416248E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0168329502132866E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3021574150344339E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2385588873232935E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.5076278908332867E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0084800399252432E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.2069846436675367E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.108889803029511E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$N$23:$N$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6105107797329504E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8415433306623803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4776875772416248E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0168329502132866E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3021574150344339E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2385588873232935E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.5076278908332867E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0084800399252432E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.2069846436675367E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.108889803029511E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="3CE25C"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$M$23:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.207222840002937E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0008192499935804E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.105057040022072E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1032343699935099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2038569999913266E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0629547500229788E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0396161899916443E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1952447000203351E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2235564500224382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.071865350022559E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB9F-4960-B8B3-2753C645D535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i5 8300H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E758EE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$N$13:$N$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.9928234466250701E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.3127030168815999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.5870167758094803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8906484053790099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.43690979300224E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9763571431715999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5056363606958002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5659728994941199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.68340489332695E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.7626236052808803E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$N$13:$N$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.9928234466250701E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.3127030168815999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.5870167758094803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8906484053790099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.43690979300224E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9763571431715999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5056363606958002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5659728994941199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.68340489332695E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.7626236052808803E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E758EE"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$M$13:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.5324199998940402E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2812400000875606E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3382299999357201E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7866500000018197E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8171299999885294E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3268000000316506E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2742300000972994E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8242299999364993E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1180600003099195E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1380800002298194E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB9F-4960-B8B3-2753C645D535}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5123,6 +9148,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6672,6 +10857,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7261,6 +13510,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C23368D-2023-4B17-B15A-C8011C714F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7323,6 +13610,125 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2833A0E2-AAC1-4D8A-8337-C99E3FF5AA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21CF32C-08C6-491D-AC95-880637D1336E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AD7A8A-A681-4124-8BA2-926D97254814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8914BF-FE3A-4E55-8C08-8FB3D51D307D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7642,10 +14048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7656,27 +14062,27 @@
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7720,7 +14126,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -7764,7 +14170,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5">
         <v>1000</v>
       </c>
@@ -7806,7 +14212,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="5">
         <v>1500</v>
       </c>
@@ -7848,7 +14254,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5">
         <v>2000</v>
       </c>
@@ -7890,7 +14296,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5">
         <v>2500</v>
       </c>
@@ -7932,7 +14338,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5">
         <v>3000</v>
       </c>
@@ -7974,7 +14380,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5">
         <v>3500</v>
       </c>
@@ -8016,7 +14422,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>4000</v>
       </c>
@@ -8058,7 +14464,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5">
         <v>4500</v>
       </c>
@@ -8100,7 +14506,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6">
         <v>5000</v>
       </c>
@@ -8142,51 +14548,51 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>500</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>1.7727239400000501</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>0.12237062303435201</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>2.7360899999621302E-3</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>6.1534854874460796E-4</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>2.81715168000009</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>4.5249024599880602E-2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>4.6295899998767698E-3</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>1.1194869311828401E-4</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <v>5.0565349200001899</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14">
         <v>6.6614799153970894E-2</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="14">
         <v>6.5324199998940402E-3</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <v>1.9928234466250701E-4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5">
         <v>1000</v>
       </c>
@@ -8228,7 +14634,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="5">
         <v>1500</v>
       </c>
@@ -8270,7 +14676,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5">
         <v>2000</v>
       </c>
@@ -8312,7 +14718,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5">
         <v>2500</v>
       </c>
@@ -8354,7 +14760,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5">
         <v>3000</v>
       </c>
@@ -8396,7 +14802,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5">
         <v>3500</v>
       </c>
@@ -8438,7 +14844,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5">
         <v>4000</v>
       </c>
@@ -8480,7 +14886,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5">
         <v>4500</v>
       </c>
@@ -8522,7 +14928,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6">
         <v>5000</v>
       </c>
@@ -8563,8 +14969,431 @@
         <v>6.7626236052808803E-4</v>
       </c>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <v>500</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2.2990572763000694</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.4553920498122843E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>4.4668883999747751E-3</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1.1917449771424856E-3</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3.9460353626000555</v>
+      </c>
+      <c r="H23" s="14">
+        <v>8.4228366504502852E-3</v>
+      </c>
+      <c r="I23" s="14">
+        <v>5.119329800027112E-3</v>
+      </c>
+      <c r="J23" s="15">
+        <v>7.4780388221676753E-4</v>
+      </c>
+      <c r="K23" s="13">
+        <v>7.1670876352000006</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1.8285052479013828E-2</v>
+      </c>
+      <c r="M23" s="14">
+        <v>1.207222840002937E-2</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1.6105107797329504E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4.5742367581000014</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.224377048502504E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3.3734152999841129E-3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>6.4784954309949348E-4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>7.8751830411000316</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.3104025012716751E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>7.0091527999920746E-3</v>
+      </c>
+      <c r="J24" s="9">
+        <v>9.1021844509114316E-4</v>
+      </c>
+      <c r="K24" s="7">
+        <v>14.321224735400159</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.5468202573529213E-2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1.0008192499935804E-2</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5.8415433306623803E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6.8142978335999898</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.2780393705641788E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5.2620280000155563E-3</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1.3196545779864139E-3</v>
+      </c>
+      <c r="G25" s="7">
+        <v>11.72670298900006</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3.2281538647563175E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6.665173499914084E-3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>8.1534563216046566E-4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>21.291910492799836</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.6310996791454112E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1.105057040022072E-2</v>
+      </c>
+      <c r="N25" s="9">
+        <v>9.4776875772416248E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9.0599956752000672</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.7962446309413151E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.2407467999964806E-3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>7.4191367327346961E-4</v>
+      </c>
+      <c r="G26" s="7">
+        <v>15.596536028699878</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2.2365361220791781E-2</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1.0079130400117705E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1.6566073733397864E-3</v>
+      </c>
+      <c r="K26" s="7">
+        <v>28.364335130400043</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2.3297054371290281E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.1032343699935099E-2</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.0168329502132866E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11.304956301600001</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.6665560175499632E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>5.6960470999911144E-3</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1.6508814083482097E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>19.481524161499827</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2.1491068538612604E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>7.6285706001726697E-3</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1.2274563050860584E-3</v>
+      </c>
+      <c r="K27" s="7">
+        <v>35.433901435399946</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3.3881126396055207E-2</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.2038569999913266E-2</v>
+      </c>
+      <c r="N27" s="9">
+        <v>2.3021574150344339E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13.60534221879999</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.6120361399977733E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.5766582998803592E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5.0151957736447271E-4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>23.441937094600089</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2.3765959179150236E-2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>6.1585880001075533E-3</v>
+      </c>
+      <c r="J28" s="9">
+        <v>8.5784086276441147E-4</v>
+      </c>
+      <c r="K28" s="7">
+        <v>42.575435640199835</v>
+      </c>
+      <c r="L28" s="8">
+        <v>2.583478860396721E-2</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1.0629547500229788E-2</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1.2385588873232935E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C29" s="7">
+        <v>15.686439360699982</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2.427252166426935E-2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5.021765299989051E-3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.0692674210760391E-3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>27.067762447299931</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2.4300649303111484E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <v>7.2316855001190476E-3</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1.3105118387768575E-3</v>
+      </c>
+      <c r="K29" s="7">
+        <v>49.23688640470013</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5.0504493634753331E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1.0396161899916443E-2</v>
+      </c>
+      <c r="N29" s="9">
+        <v>6.5076278908332867E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="7">
+        <v>17.90176215959989</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.741673113703349E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.3347495000034507E-3</v>
+      </c>
+      <c r="F30" s="9">
+        <v>6.203139965030275E-4</v>
+      </c>
+      <c r="G30" s="7">
+        <v>30.926185939099877</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2.8171554641061535E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <v>7.10405469999386E-3</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2.0123559173395649E-3</v>
+      </c>
+      <c r="K30" s="7">
+        <v>56.258593999299912</v>
+      </c>
+      <c r="L30" s="8">
+        <v>7.4185425039482125E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1.1952447000203351E-2</v>
+      </c>
+      <c r="N30" s="9">
+        <v>2.0084800399252432E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C31" s="7">
+        <v>20.11907072399995</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2.4516052607634245E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3.969280699993756E-3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>6.4765830962713845E-4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>34.777489398199819</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3.2114044352146168E-2</v>
+      </c>
+      <c r="I31" s="8">
+        <v>7.2733863001303552E-3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1.5931666548219584E-3</v>
+      </c>
+      <c r="K31" s="7">
+        <v>63.285204171100077</v>
+      </c>
+      <c r="L31" s="8">
+        <v>5.1112923462382449E-2</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1.2235564500224382E-2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2.2069846436675367E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="10">
+        <v>22.368528816999962</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3.1004811810869403E-2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>4.4072543000311225E-3</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1.0817212028607496E-3</v>
+      </c>
+      <c r="G32" s="10">
+        <v>38.61454681979999</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3.9151285486635358E-2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.1498916000091243E-3</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1.2307354595721103E-3</v>
+      </c>
+      <c r="K32" s="10">
+        <v>70.286275021099726</v>
+      </c>
+      <c r="L32" s="11">
+        <v>4.8134337258268677E-2</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1.071865350022559E-2</v>
+      </c>
+      <c r="N32" s="12">
+        <v>1.108889803029511E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A23:A32"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="C1:F1"/>
@@ -8581,8 +15410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0831EEC-578B-438B-A418-1584F17C0409}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8596,8 +15425,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8260CD52-98BC-4C00-899E-B36A082F3539}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245AFC5C-8A15-40E8-9991-04E7FBD8CFF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/exec_time.xlsx
+++ b/results/exec_time.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\bryan\2021-2\CC5905\vdf\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8175A-33F2-4388-8340-E1D39DA17045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD56112-ADFA-4DD5-B95D-1968D2D0BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exec_time" sheetId="1" r:id="rId1"/>
-    <sheet name="Prover" sheetId="2" r:id="rId2"/>
-    <sheet name="Verifier" sheetId="4" r:id="rId3"/>
-    <sheet name="Comparison" sheetId="5" r:id="rId4"/>
+    <sheet name="via IPS" sheetId="6" r:id="rId2"/>
+    <sheet name="Prover" sheetId="2" r:id="rId3"/>
+    <sheet name="Verifier" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparison" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>T</t>
   </si>
@@ -71,6 +72,15 @@
   <si>
     <t>Google Colab</t>
   </si>
+  <si>
+    <t>IPS Calc</t>
+  </si>
+  <si>
+    <t>Intel Core i7-1185G7</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X 16-Core</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +227,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,7 +720,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -731,8 +763,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,12 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -774,14 +801,47 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -813,6 +873,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +890,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF50FAC1"/>
+      <color rgb="FF2D3FEF"/>
+      <color rgb="FFE758EE"/>
       <color rgb="FF3CE25C"/>
-      <color rgb="FFE758EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1553,6 +1616,695 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A146-41A9-9652-DA05E9628619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Prover</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time IPS Based</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Comparison (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>λ = 1024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intel i3 4030U - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8028169014084501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.6056338028169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.408450704225352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.2112676056338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.014084507042256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.816901408450704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.619718309859152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.422535211267601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.225352112676063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.028169014084511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-359C-413D-9FE6-609D5A9E5E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Intel i5 8300H - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E758EE"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8216007714561231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6432015429122462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.46480231436837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.286403085824492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.108003857280618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.92960462873674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.751205400192866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.572806171648985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.39440694310511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.216007714561236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-359C-413D-9FE6-609D5A9E5E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Intel i7 1185G7 - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="2D3FEF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7113350071308111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4226700142616222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1340050213924329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.845340028523244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.556675035654056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.268010042784866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.979345049915679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.690680057046489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.402015064177299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.113350071308112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-359C-413D-9FE6-609D5A9E5E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AMD Ryzen 9 5950X - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="50FAC1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$F$13:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3319372802149112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6638745604298224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.995811840644734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3277491208596448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.659686401074557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.991623681289468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.323560961504381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.65549824171929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.987435521934202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.319372802149115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-359C-413D-9FE6-609D5A9E5E07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8988,7 +9740,979 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Prover</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Comparison (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>λ = 1024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1600" baseline="0">
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1600">
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i3 4030U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$3:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.388420021375874</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.39513008831525598</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1561520801262799</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.220184874208739</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54078538832651801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.859410092454</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.68271195593295897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.159235070063562</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.86254511659107003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29108468258095899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$3:$L$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.388420021375874</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.39513008831525598</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1561520801262799</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.220184874208739</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54078538832651801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.859410092454</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.68271195593295897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.159235070063562</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.86254511659107003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29108468258095899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.349120025099801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.959985794499701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.6982834143997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.266359815900202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.520453484700099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.4492093566002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.075299884199694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.992055188000194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.906057717600007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.75606209350001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6B8-414D-8044-F328A996811D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Intel i3 4030U - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8028169014084501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.6056338028169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.408450704225352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.2112676056338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.014084507042256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.816901408450704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.619718309859152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.422535211267601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.225352112676063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.028169014084511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6B8-414D-8044-F328A996811D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exec_time!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i5 8300H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E758EE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>exec_time!$L$13:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6.6614799153970894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.66509865082993103</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70606044298456205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.83692400945801604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3622611022867801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6653446221413399</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.72493368499103905</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2816140294413398</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.89788937969286</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6868696528348199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>exec_time!$L$13:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6.6614799153970894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.66509865082993103</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70606044298456205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.83692400945801604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3622611022867801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6653446221413399</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.72493368499103905</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2816140294413398</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.89788937969286</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6868696528348199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E758EE"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>exec_time!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exec_time!$K$13:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0565349200001899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.787465639999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.240491409999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.259697090000099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.9296479600001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.8246406499998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.745484039999802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.599563570000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.7401710299999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.101134799999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6B8-414D-8044-F328A996811D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Intel i5 8300H - IPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E758EE"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'via IPS'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8216007714561231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6432015429122462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.46480231436837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.286403085824492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.108003857280618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.92960462873674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.751205400192866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.572806171648985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.39440694310511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.216007714561236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6B8-414D-8044-F328A996811D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003425247"/>
+        <c:axId val="1003425663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003425247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Thousands of Squarings</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (Iterations)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1003425663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003425247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9308,6 +11032,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9824,7 +11588,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10340,7 +12104,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10856,7 +12620,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11372,7 +13136,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11888,7 +13652,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12404,7 +14168,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12920,7 +14684,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13748,6 +16544,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564D48BF-027E-40D7-BE78-1A63A60589E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD98A1-D359-40AA-83E1-91DF7A70D00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14050,8 +16922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14060,26 +16932,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
@@ -14126,7 +16998,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -14170,7 +17042,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5">
         <v>1000</v>
       </c>
@@ -14212,7 +17084,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5">
         <v>1500</v>
       </c>
@@ -14254,7 +17126,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5">
         <v>2000</v>
       </c>
@@ -14296,7 +17168,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5">
         <v>2500</v>
       </c>
@@ -14338,7 +17210,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5">
         <v>3000</v>
       </c>
@@ -14380,7 +17252,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
         <v>3500</v>
       </c>
@@ -14422,7 +17294,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>4000</v>
       </c>
@@ -14464,7 +17336,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5">
         <v>4500</v>
       </c>
@@ -14506,7 +17378,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="6">
         <v>5000</v>
       </c>
@@ -14548,7 +17420,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
@@ -14592,7 +17464,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5">
         <v>1000</v>
       </c>
@@ -14634,7 +17506,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="5">
         <v>1500</v>
       </c>
@@ -14676,7 +17548,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5">
         <v>2000</v>
       </c>
@@ -14718,7 +17590,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="5">
         <v>2500</v>
       </c>
@@ -14760,7 +17632,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="5">
         <v>3000</v>
       </c>
@@ -14802,7 +17674,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="5">
         <v>3500</v>
       </c>
@@ -14844,7 +17716,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5">
         <v>4000</v>
       </c>
@@ -14886,7 +17758,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5">
         <v>4500</v>
       </c>
@@ -14928,7 +17800,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="6">
         <v>5000</v>
       </c>
@@ -14970,7 +17842,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4">
@@ -15014,7 +17886,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5">
         <v>1000</v>
       </c>
@@ -15056,7 +17928,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5">
         <v>1500</v>
       </c>
@@ -15098,7 +17970,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5">
         <v>2000</v>
       </c>
@@ -15140,7 +18012,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5">
         <v>2500</v>
       </c>
@@ -15182,7 +18054,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5">
         <v>3000</v>
       </c>
@@ -15224,7 +18096,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5">
         <v>3500</v>
       </c>
@@ -15266,7 +18138,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5">
         <v>4000</v>
       </c>
@@ -15308,7 +18180,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5">
         <v>4500</v>
       </c>
@@ -15350,7 +18222,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6">
         <v>5000</v>
       </c>
@@ -15407,6 +18279,436 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07DA7FB-952C-400B-A06E-CC6871BC89BB}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26">
+        <v>500</v>
+      </c>
+      <c r="C3" s="7">
+        <v>11.349120025099801</v>
+      </c>
+      <c r="D3" s="31">
+        <f>B3*1000/$A$12</f>
+        <v>8.8028169014084501</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="31">
+        <f>B3*1000/$E$12</f>
+        <v>2.7113350071308111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>22.959985794499701</v>
+      </c>
+      <c r="D4" s="29">
+        <f t="shared" ref="D4:D12" si="0">B4*1000/$A$12</f>
+        <v>17.6056338028169</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="29">
+        <f t="shared" ref="F4:F12" si="1">B4*1000/$E$12</f>
+        <v>5.4226700142616222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="27">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>31.6982834143997</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" si="0"/>
+        <v>26.408450704225352</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29">
+        <f t="shared" si="1"/>
+        <v>8.1340050213924329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="27">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>41.266359815900202</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" si="0"/>
+        <v>35.2112676056338</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29">
+        <f t="shared" si="1"/>
+        <v>10.845340028523244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C7" s="7">
+        <v>52.520453484700099</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="0"/>
+        <v>44.014084507042256</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="29">
+        <f t="shared" si="1"/>
+        <v>13.556675035654056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>63.4492093566002</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" si="0"/>
+        <v>52.816901408450704</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="29">
+        <f t="shared" si="1"/>
+        <v>16.268010042784866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="27">
+        <v>3500</v>
+      </c>
+      <c r="C9" s="7">
+        <v>73.075299884199694</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" si="0"/>
+        <v>61.619718309859152</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="29">
+        <f t="shared" si="1"/>
+        <v>18.979345049915679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="27">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>83.992055188000194</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>70.422535211267601</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29">
+        <f t="shared" si="1"/>
+        <v>21.690680057046489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="27">
+        <v>4500</v>
+      </c>
+      <c r="C11" s="7">
+        <v>92.906057717600007</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>79.225352112676063</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="29">
+        <f t="shared" si="1"/>
+        <v>24.402015064177299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
+        <v>56800</v>
+      </c>
+      <c r="B12" s="28">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>102.75606209350001</v>
+      </c>
+      <c r="D12" s="30">
+        <f>B12*1000/$A$12</f>
+        <v>88.028169014084511</v>
+      </c>
+      <c r="E12" s="28">
+        <v>184411</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>27.113350071308112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26">
+        <v>500</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5.0565349200001899</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*1000/$A$22</f>
+        <v>4.8216007714561231</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="29">
+        <f>B13*1000/$E$22</f>
+        <v>2.3319372802149112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10.787465639999899</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" ref="D14:D22" si="2">B14*1000/$A$22</f>
+        <v>9.6432015429122462</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="29">
+        <f t="shared" ref="F14:F22" si="3">B14*1000/$E$22</f>
+        <v>4.6638745604298224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="7">
+        <v>16.240491409999901</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" si="2"/>
+        <v>14.46480231436837</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="29">
+        <f t="shared" si="3"/>
+        <v>6.995811840644734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="27">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>21.259697090000099</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="2"/>
+        <v>19.286403085824492</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="29">
+        <f t="shared" si="3"/>
+        <v>9.3277491208596448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>26.9296479600001</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="2"/>
+        <v>24.108003857280618</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="29">
+        <f t="shared" si="3"/>
+        <v>11.659686401074557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>31.8246406499998</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="2"/>
+        <v>28.92960462873674</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="29">
+        <f t="shared" si="3"/>
+        <v>13.991623681289468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="27">
+        <v>3500</v>
+      </c>
+      <c r="C19" s="7">
+        <v>37.745484039999802</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" si="2"/>
+        <v>33.751205400192866</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29">
+        <f t="shared" si="3"/>
+        <v>16.323560961504381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="27">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>41.599563570000001</v>
+      </c>
+      <c r="D20" s="29">
+        <f t="shared" si="2"/>
+        <v>38.572806171648985</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="29">
+        <f t="shared" si="3"/>
+        <v>18.65549824171929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="27">
+        <v>4500</v>
+      </c>
+      <c r="C21" s="7">
+        <v>46.7401710299999</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="2"/>
+        <v>43.39440694310511</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="29">
+        <f t="shared" si="3"/>
+        <v>20.987435521934202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <v>103700</v>
+      </c>
+      <c r="B22" s="28">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>54.101134799999997</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" si="2"/>
+        <v>48.216007714561236</v>
+      </c>
+      <c r="E22" s="28">
+        <v>214414</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="3"/>
+        <v>23.319372802149115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A13:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0831EEC-578B-438B-A418-1584F17C0409}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15421,7 +18723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8260CD52-98BC-4C00-899E-B36A082F3539}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15436,12 +18738,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245AFC5C-8A15-40E8-9991-04E7FBD8CFF7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
